--- a/data_year/zb/工业/按行业分私营工业企业主要经济指标(2000-2002)/利息支出.xlsx
+++ b/data_year/zb/工业/按行业分私营工业企业主要经济指标(2000-2002)/利息支出.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,377 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>2.045</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2.61606</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.3378</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.00329</v>
-      </c>
-      <c r="F2" t="n">
-        <v>0.74368</v>
-      </c>
-      <c r="G2" t="n">
-        <v>3.57287</v>
-      </c>
-      <c r="H2" t="n">
-        <v>0.18221</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1.10072</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.53257</v>
-      </c>
-      <c r="K2" t="n">
-        <v>2.18512</v>
-      </c>
-      <c r="L2" t="n">
-        <v>0.84106</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.51842</v>
-      </c>
-      <c r="N2" t="n">
-        <v>3.34099</v>
-      </c>
-      <c r="O2" t="n">
-        <v>2.40748</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0.21972</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2.6492</v>
-      </c>
-      <c r="R2" t="n">
-        <v>1.35997</v>
-      </c>
-      <c r="S2" t="inlineStr"/>
-      <c r="T2" t="n">
-        <v>0.60904</v>
-      </c>
-      <c r="U2" t="n">
-        <v>0.00895</v>
-      </c>
-      <c r="V2" t="n">
-        <v>0.00116</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0.27251</v>
-      </c>
-      <c r="X2" t="n">
-        <v>0.4465</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0.8944800000000001</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>3.75668</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>1.49904</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>0.82462</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>0.03545</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>60.54571</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>6.40632</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>0.01549</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>1.86359</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>3.33943</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>6.92293</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>0.28979</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>1.58449</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>3.65189</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>1.50119</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>1.66049</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>0.30551</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>2.38928</v>
-      </c>
-      <c r="C3" t="n">
-        <v>3.80713</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.56738</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.00344</v>
-      </c>
-      <c r="F3" t="n">
-        <v>1.06593</v>
-      </c>
-      <c r="G3" t="n">
-        <v>5.3385</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0.68951</v>
-      </c>
-      <c r="I3" t="n">
-        <v>1.83689</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.75571</v>
-      </c>
-      <c r="K3" t="n">
-        <v>3.14017</v>
-      </c>
-      <c r="L3" t="n">
-        <v>1.15776</v>
-      </c>
-      <c r="M3" t="n">
-        <v>0.7221</v>
-      </c>
-      <c r="N3" t="n">
-        <v>4.98839</v>
-      </c>
-      <c r="O3" t="n">
-        <v>3.20923</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0.37194</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>3.03499</v>
-      </c>
-      <c r="R3" t="n">
-        <v>2.20362</v>
-      </c>
-      <c r="S3" t="inlineStr"/>
-      <c r="T3" t="n">
-        <v>0.9563199999999999</v>
-      </c>
-      <c r="U3" t="n">
-        <v>0.00664</v>
-      </c>
-      <c r="V3" t="n">
-        <v>0.0261</v>
-      </c>
-      <c r="W3" t="n">
-        <v>0.47967</v>
-      </c>
-      <c r="X3" t="n">
-        <v>0.63349</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>1.1904</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>5.19072</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1.70441</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>1.09537</v>
-      </c>
-      <c r="AC3" t="inlineStr"/>
-      <c r="AD3" t="n">
-        <v>87.05377</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>10.64975</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>0.0828</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>2.97412</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>4.62422</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>8.837809999999999</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>0.38676</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>2.0816</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>5.48368</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>1.94465</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>2.96255</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>0.46074</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>2.93474</v>
-      </c>
-      <c r="C4" t="n">
-        <v>4.8396</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.58843</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.00316</v>
-      </c>
-      <c r="F4" t="n">
-        <v>1.58541</v>
-      </c>
-      <c r="G4" t="n">
-        <v>7.14585</v>
-      </c>
-      <c r="H4" t="n">
-        <v>0.81654</v>
-      </c>
-      <c r="I4" t="n">
-        <v>2.40246</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.93035</v>
-      </c>
-      <c r="K4" t="n">
-        <v>4.1373</v>
-      </c>
-      <c r="L4" t="n">
-        <v>1.32082</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1.05665</v>
-      </c>
-      <c r="N4" t="n">
-        <v>6.50695</v>
-      </c>
-      <c r="O4" t="n">
-        <v>3.93875</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0.49007</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>3.95666</v>
-      </c>
-      <c r="R4" t="n">
-        <v>2.88253</v>
-      </c>
-      <c r="S4" t="inlineStr"/>
-      <c r="T4" t="n">
-        <v>1.12367</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0.00122</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0.12047</v>
-      </c>
-      <c r="W4" t="n">
-        <v>1.00374</v>
-      </c>
-      <c r="X4" t="n">
-        <v>0.98233</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>1.53978</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>6.75091</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>2.31062</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>1.75747</v>
-      </c>
-      <c r="AC4" t="inlineStr"/>
-      <c r="AD4" t="n">
-        <v>114.21319</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>14.64552</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>0.15414</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>4.06674</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>6.01377</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>10.81953</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>0.52963</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>2.76049</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>6.8903</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>1.9239</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4.59455</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>0.68814</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
